--- a/public/static/docs/file_template_general_custom.xlsx
+++ b/public/static/docs/file_template_general_custom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WebServers\xampp8\htdocs\appgencert\public\static\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WebServers\xampp8\htdocs\apptrustcert\public\static\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D779DF3D-F905-4765-80E5-3745B04842CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E5AA16-99DA-4BE7-8932-829B01823DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{38262676-22A8-4BF8-A036-165E08214C6C}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="20460" windowHeight="10770" xr2:uid="{38262676-22A8-4BF8-A036-165E08214C6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>NO</t>
   </si>
@@ -44,9 +44,6 @@
     <t>NAMA</t>
   </si>
   <si>
-    <t>TANGGAL UJIAN</t>
-  </si>
-  <si>
     <t>NO. SERTIFIKAT</t>
   </si>
   <si>
@@ -60,6 +57,12 @@
   </si>
   <si>
     <t>TANGGAL UJIAN CUSTOM</t>
+  </si>
+  <si>
+    <t>TANGGAL 1</t>
+  </si>
+  <si>
+    <t>TANGGAL 2</t>
   </si>
 </sst>
 </file>
@@ -460,24 +463,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B66378D-84E7-4625-880B-C4666B4626D9}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -485,25 +488,28 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
